--- a/Test Cases Final.xlsx
+++ b/Test Cases Final.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Security" sheetId="1" r:id="rId1"/>
-    <sheet name="State Transition" sheetId="2" r:id="rId2"/>
-    <sheet name="Use Case" sheetId="3" r:id="rId3"/>
+    <sheet name="Use Case" sheetId="3" r:id="rId2"/>
+    <sheet name="State Transition" sheetId="2" r:id="rId3"/>
+    <sheet name="Cause and Effect" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="autoNoTable"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="285">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -678,12 +679,247 @@
   <si>
     <t>The "Profile" Page is accessible by the Registered User</t>
   </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Mercury Travel Website should be run first              2.The User should be on the Regitration page  </t>
+  </si>
+  <si>
+    <t>To validate the functionality of  Email Field By entering InValid data</t>
+  </si>
+  <si>
+    <t>abcd.com</t>
+  </si>
+  <si>
+    <t>1) Open the Browser and Enter the URL www.newtours.demoaut.com</t>
+  </si>
+  <si>
+    <t>1)The Website opens and Home page should be displayed.</t>
+  </si>
+  <si>
+    <t>1)The Website opens and Home page is displayed.</t>
+  </si>
+  <si>
+    <t>2)Click on the "Register" link on the Home Page.</t>
+  </si>
+  <si>
+    <t>2)The Register link should be visible on the Home page.</t>
+  </si>
+  <si>
+    <t>2)The Register link is visible on the Home page.</t>
+  </si>
+  <si>
+    <t>3)Click on the Email Field and enter invalid email ID and click on "Submit" button</t>
+  </si>
+  <si>
+    <t>3)The Email Field should not accept invalid email ID and Error message should be displayed.</t>
+  </si>
+  <si>
+    <t>3)The Email Field is  accepting the invalid email ID.</t>
+  </si>
+  <si>
+    <t>The Email Field  is not accepting  the invalid email ID and error message is dispayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. The Mercury Travel Website should be run first              2.The User should be on the Regitration page </t>
+  </si>
+  <si>
+    <t>To validate the functionality Registration by entering different password.</t>
+  </si>
+  <si>
+    <t>qwerty123</t>
+  </si>
+  <si>
+    <t>123qwerty</t>
+  </si>
+  <si>
+    <t>3)Enter all the data in all the fields with different password.</t>
+  </si>
+  <si>
+    <t>3)Data should be accepted by all the fields.</t>
+  </si>
+  <si>
+    <t>3)Enter data in all fields and click on Submit button.</t>
+  </si>
+  <si>
+    <t>3)The error message "Enter the correct confirm password and password same.</t>
+  </si>
+  <si>
+    <t>4)On click of the "Submit" button Error message should be displyed for password not matching with the confirm password field.</t>
+  </si>
+  <si>
+    <t>4)User redirected to new page and Message displayed is Account created successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. The Mercury Travel Website should be run first              2.The User should be on the Regitration page.  </t>
+  </si>
+  <si>
+    <t>To validate the functionality of  Password and confirm Field By leaving blank</t>
+  </si>
+  <si>
+    <t>3)Enter all the data in all the fields except password fields.</t>
+  </si>
+  <si>
+    <t>3)Error message should be displyed.</t>
+  </si>
+  <si>
+    <t>3)The error message is displayed "Enter the password to create the account.</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>To validate the functionality of  Login field present on the Home page.</t>
+  </si>
+  <si>
+    <t>Username: Vishal</t>
+  </si>
+  <si>
+    <t>Password: test@123</t>
+  </si>
+  <si>
+    <t>2)Enter the valid Username and valid password.</t>
+  </si>
+  <si>
+    <t>2)The Username and Password should be accepted by the fields.</t>
+  </si>
+  <si>
+    <t>2)The Username and Password is accepted by the fields.</t>
+  </si>
+  <si>
+    <t>2)User is directed to next page with message "Login is successfull"</t>
+  </si>
+  <si>
+    <t>3)Click on the "Sign-In" button.</t>
+  </si>
+  <si>
+    <t>2)User should be directed to next page with message "Login is successfull"</t>
+  </si>
+  <si>
+    <t>3)User is directed to "Sign-In" page.</t>
+  </si>
+  <si>
+    <t>Flight Booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. The Mercury Travel Website should be run first              2.The User should Signed in to the website.               3)User should be on Flight booking page.</t>
+  </si>
+  <si>
+    <t>To validate the functionality of  Card number Field By Entering invalid data</t>
+  </si>
+  <si>
+    <t>zxcvbnmlkjhgfdas</t>
+  </si>
+  <si>
+    <t>2)Sign In to the website and click on flight booking link.</t>
+  </si>
+  <si>
+    <t>2)User should be Signed- in to the website and must be on the Flight booking page.</t>
+  </si>
+  <si>
+    <t>2)User is able Signed- in to the website and is on the Flight booking page.</t>
+  </si>
+  <si>
+    <t>3)Fill all the fields for finding the flight.</t>
+  </si>
+  <si>
+    <t>3)Details should be accepted by all the fields.</t>
+  </si>
+  <si>
+    <t>3)Details are accepted by all the fields.</t>
+  </si>
+  <si>
+    <t>4)User is be able to make selection of the flight.</t>
+  </si>
+  <si>
+    <t>4)Select the available flight and click on continue .</t>
+  </si>
+  <si>
+    <t>4)User should be able to make selection of the flight.</t>
+  </si>
+  <si>
+    <t>5)Error message is displayed for incorrect Card details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5)Fill all the passanger details and Enter the card number. </t>
+  </si>
+  <si>
+    <t>5)Details should be accepted by all the fields and Error message should be displayed for invaild card number.</t>
+  </si>
+  <si>
+    <t>5)Details should be accepted by all the fields and User is directed to next page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Mercury Travel Website should be run first.              2.The User should be on the Regitration page  </t>
+  </si>
+  <si>
+    <t>To validate the functionality of  SUBMIT button by leaving Mobile number field blank</t>
+  </si>
+  <si>
+    <t>The "Let's talk about your App" chat box displayed on the home page</t>
+  </si>
+  <si>
+    <t>3)Click on the Mobile Field and leave it blank</t>
+  </si>
+  <si>
+    <t>The error message "Enter a valid Mobile number" should be displayed</t>
+  </si>
+  <si>
+    <t>The error message "Enter a valid Mobile number" is displayed</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Browser should be on and running.  
+ </t>
+  </si>
+  <si>
+    <t>To validate the functionality of "Enter URL" field with valid URL</t>
+  </si>
+  <si>
+    <t>www.newtours.demoaut.com</t>
+  </si>
+  <si>
+    <t>1) Open the Browser</t>
+  </si>
+  <si>
+    <t>1)The Browser should get loaded on the User system.</t>
+  </si>
+  <si>
+    <t>1)The Browser gets loaded on the User system.</t>
+  </si>
+  <si>
+    <t>2) Enter the Url:www.newtours.demoaut.com</t>
+  </si>
+  <si>
+    <t>2)The URL should be accepted by the browser</t>
+  </si>
+  <si>
+    <t>2)The URL is accepted by the browser</t>
+  </si>
+  <si>
+    <t>3)Press Enter key.</t>
+  </si>
+  <si>
+    <t>3)The Website should open with HOME page.</t>
+  </si>
+  <si>
+    <t>3)User is directed to Home page of the Website.</t>
+  </si>
+  <si>
+    <t>4)Click on the "Submit" button.</t>
+  </si>
+  <si>
+    <t>3)Details are accepted by all the fields</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,8 +956,21 @@
       <name val="Candara"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,6 +998,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,17 +1106,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,6 +1172,46 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -958,12 +1257,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,20 +1284,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -1361,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,886 +1718,886 @@
     <col min="13" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="73" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="3" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="3" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="3" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="5" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="3" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="49"/>
+      <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="3" t="s">
+      <c r="K9" s="49"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="49"/>
+      <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="3" t="s">
+      <c r="K10" s="49"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="49"/>
+      <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="3" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="49"/>
+      <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="3" t="s">
+      <c r="K12" s="49"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="3" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="46"/>
+      <c r="J15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="3" t="s">
+      <c r="K15" s="49"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="46"/>
+      <c r="J16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="3" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="46"/>
+      <c r="J17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="3" t="s">
+      <c r="K17" s="49"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="46"/>
+      <c r="J18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="47"/>
+      <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="3" t="s">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="46"/>
+      <c r="J21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="3" t="s">
+      <c r="K21" s="49"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="46"/>
+      <c r="J22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="3" t="s">
+      <c r="K22" s="49"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="46"/>
+      <c r="J23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="3" t="s">
+      <c r="K23" s="49"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="46"/>
+      <c r="J24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="3" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="47"/>
+      <c r="J25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="3" t="s">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="46"/>
+      <c r="J27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="3" t="s">
+      <c r="K27" s="37"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="46"/>
+      <c r="J28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="3" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="47"/>
+      <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="42"/>
+      <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="3" t="s">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="3" t="s">
+      <c r="I31" s="37"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="3" t="s">
+      <c r="I32" s="37"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="3" t="s">
+      <c r="I33" s="37"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="3" t="s">
+      <c r="I34" s="37"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2357,6 +2693,759 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="55"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="59"/>
+      <c r="J15" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K15" s="55"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" s="55"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="59"/>
+      <c r="J21" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" s="55"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="59"/>
+      <c r="J24" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" s="55"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" s="55"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2380,1268 +3469,1269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="40" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="13"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="13"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="13"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="13"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="59"/>
+      <c r="J9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="13"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="59"/>
+      <c r="J10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="13"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="59"/>
+      <c r="J11" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="13"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="43" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="13"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="13"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="13"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="18" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="13"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="18" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="13"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="13"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="43" t="s">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="13"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="13"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="13"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="18" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="13"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="18" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="13"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="13"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="43" t="s">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="M29" s="13"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="18" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="13"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="18" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="13"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="13"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="15" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="13"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="18" t="s">
+      <c r="A34" s="53"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="13"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="11"/>
     </row>
     <row r="35" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="18" t="s">
+      <c r="A35" s="53"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="13"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="42" t="s">
+      <c r="I37" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="43" t="s">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="M37" s="13"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="18" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="13"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="18" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="13"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="15" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="13"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="11"/>
     </row>
     <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="18" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="13"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="18" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="13"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="13"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="11"/>
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="42" t="s">
+      <c r="I44" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="43" t="s">
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="M44" s="13"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="18" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="13"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="18" t="s">
+      <c r="A46" s="53"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="13"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="11"/>
     </row>
     <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="15" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="13"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="11"/>
     </row>
     <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="18" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I48" s="42"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="13"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="11"/>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="18" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="I49" s="42"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="13"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="15" t="s">
+      <c r="E51" s="11"/>
+      <c r="F51" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I51" s="42" t="s">
+      <c r="I51" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="40" t="s">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="M51" s="13"/>
+      <c r="M51" s="11"/>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="18" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="I52" s="42"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="13"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="11"/>
     </row>
     <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="18" t="s">
+      <c r="A53" s="53"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="13"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="11"/>
     </row>
     <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="15" t="s">
+      <c r="A54" s="53"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I54" s="42"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="13"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="11"/>
     </row>
     <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="18" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I55" s="42"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="13"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="11"/>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="18" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I56" s="42"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="13"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="L3:L6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="I3:I6"/>
-    <mergeCell ref="L21:L27"/>
     <mergeCell ref="L8:L11"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:B19"/>
@@ -3655,8 +4745,6 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="K8:K11"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="I21:I27"/>
@@ -3672,6 +4760,7 @@
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="I37:I42"/>
+    <mergeCell ref="L21:L27"/>
     <mergeCell ref="L51:L56"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="B44:B49"/>
@@ -3689,755 +4778,896 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="42" t="s">
+      <c r="B2" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="L2" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="55"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="61"/>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="42" t="s">
+      <c r="B6" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="L6" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="61"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="46" t="s">
+      <c r="B11" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8" s="42" t="s">
+      <c r="J11" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="L11" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="62"/>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="59"/>
+      <c r="J12" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="63"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="59"/>
+      <c r="J13" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="55"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="63"/>
+    </row>
+    <row r="14" spans="1:13" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="64"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="42" t="s">
+      <c r="B16" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="L16" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="62"/>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I18" s="70"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="64"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="46" t="s">
+      <c r="B20" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" s="42" t="s">
+      <c r="J20" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="L20" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="61"/>
+    </row>
+    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="I21" s="59"/>
+      <c r="J21" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" s="55"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="59"/>
+      <c r="J22" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K22" s="55"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="61"/>
+    </row>
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" s="55"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="61"/>
+    </row>
+    <row r="24" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="59"/>
+      <c r="J24" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K24" s="55"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="61"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K17" s="42" t="s">
+      <c r="B26" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+    </row>
+    <row r="28" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K20" s="42" t="s">
+      <c r="B30" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" s="55"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="63"/>
+    </row>
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I32" s="55"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+  <mergeCells count="70">
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="abcd@gmail.com"/>
+    <hyperlink ref="E30" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>